--- a/Data/公报图表模板.xlsx
+++ b/Data/公报图表模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="省分区统计" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="分时段统计" sheetId="4" r:id="rId4"/>
     <sheet name="强度分布统计" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>地闪次数</t>
   </si>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均雷暴日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,8 +394,36 @@
     <cellStyle name="常规_时段" xfId="3"/>
     <cellStyle name="常规_月份" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -403,8 +435,968 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>负闪次数</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>分月统计!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2823</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>正闪次数</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>分月统计!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="261152128"/>
+        <c:axId val="261174784"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>负闪平均强度</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>分月统计!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.193103448275849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.594444444444441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.423726114649703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.874574468085086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.676016027475626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.334515935057127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.336733970952888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.91370786516854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.480176211453752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>正闪平均强度</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="15875"/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>分月统计!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.60000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.337795275590544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.401030927835045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.269767441860463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.94146341463415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.581481481481479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.054999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.377777777777773</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.728571428571428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="262121344"/>
+        <c:axId val="261545344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="261152128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="261174784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="261174784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="261152128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261545344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="262121344"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="262121344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="261545344"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>负闪次数</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>分时段统计!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>正闪次数</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>分时段统计!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="22904832"/>
+        <c:axId val="192878080"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>负闪平均强度</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>分时段统计!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>30.412101910828042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.164516129032265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.972000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.027058823529408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.726875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.339259259259251</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.271653543307089</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.165492957746473</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.813636363636355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.158139534883716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.275714285714272</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.321714285714293</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.820680628272271</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.835869565217408</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.18298653610773</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.191887275832627</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.66940527283877</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.051955307262624</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.867220543806656</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28.888931297709945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.654347826086962</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.452702702702698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.007772020725376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>正闪平均强度</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>分时段统计!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>33.111999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.558333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.026315789473685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.694117647058825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.116666666666674</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.868181818181817</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.304347826086953</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.318918918918911</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.137499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.016666666666662</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.372</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.259459459459471</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.741379310344833</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.065957446808518</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.262499999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.676666666666662</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.567647058823521</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41.13636363636364</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.741935483870964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="259839104"/>
+        <c:axId val="260397696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="22904832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192878080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192878080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="22904832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="260397696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="259839104"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="259839104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="260397696"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600404</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>121657</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14847</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -446,7 +1438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,7 +1473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,13 +1686,13 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="5" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1184,17 +2176,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1465,6 +2457,11 @@
       <c r="H13" s="13">
         <f>D8</f>
         <v>1.123062015503876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1478,13 +2475,13 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1786,6 +2783,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1793,15 +2791,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2337,7 +3335,7 @@
         <v>8772</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ref="C26:D26" si="1">SUM(C2:C25)</f>
+        <f t="shared" ref="C26" si="1">SUM(C2:C25)</f>
         <v>500</v>
       </c>
       <c r="D26">
@@ -2353,6 +3351,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2361,10 +3360,10 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">

--- a/Data/公报图表模板.xlsx
+++ b/Data/公报图表模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2430" windowHeight="450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="省分区统计" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="分时段统计" sheetId="4" r:id="rId4"/>
     <sheet name="强度分布统计" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>地闪次数</t>
   </si>
@@ -242,13 +242,26 @@
     <t>平均雷暴日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>正闪累计比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负闪累计比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总闪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.000%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -344,7 +357,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,6 +399,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -451,7 +465,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1246417190551911"/>
+          <c:y val="4.6179680940386228E-2"/>
+          <c:w val="0.76128312428099776"/>
+          <c:h val="0.75745849778853214"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -463,14 +487,43 @@
             <c:v>负闪次数</c:v>
           </c:tx>
           <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
             <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -526,6 +579,46 @@
           <c:tx>
             <c:v>正闪次数</c:v>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -583,8 +676,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="261152128"/>
-        <c:axId val="261174784"/>
+        <c:axId val="858679936"/>
+        <c:axId val="858680480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -596,11 +689,63 @@
             <c:v>负闪平均强度</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="15875"/>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -655,16 +800,112 @@
           <c:tx>
             <c:v>正闪平均强度</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent4">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:dPt>
             <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent4">
+                        <a:tint val="50000"/>
+                        <a:satMod val="300000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="35000">
+                      <a:schemeClr val="accent4">
+                        <a:tint val="37000"/>
+                        <a:satMod val="300000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent4">
+                        <a:tint val="15000"/>
+                        <a:satMod val="350000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="16200000" scaled="1"/>
+                </a:gradFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:shade val="95000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="38000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="15875"/>
-            </c:spPr>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -723,20 +964,117 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="262121344"/>
-        <c:axId val="261545344"/>
+        <c:axId val="858681568"/>
+        <c:axId val="858681024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="261152128"/>
+        <c:axId val="858679936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>月份</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47747644683100743"/>
+              <c:y val="0.85175759834754383"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261174784"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858680480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -744,7 +1082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261174784"/>
+        <c:axId val="858680480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,45 +1090,234 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>地闪次数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261152128"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858679936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="261545344"/>
+        <c:axId val="858681024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>平均强度（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>KA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262121344"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:softEdge rad="0"/>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858681568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="262121344"/>
+        <c:axId val="858681568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261545344"/>
+        <c:crossAx val="858681024"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -798,17 +1325,75 @@
       </c:catAx>
       <c:spPr>
         <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:softEdge rad="0"/>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -833,7 +1418,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1199837778585333"/>
+          <c:y val="4.1496746352103306E-2"/>
+          <c:w val="0.78037581060210737"/>
+          <c:h val="0.77073656576254057"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -844,6 +1439,46 @@
           <c:tx>
             <c:v>负闪次数</c:v>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -933,6 +1568,46 @@
           <c:tx>
             <c:v>正闪次数</c:v>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -1026,8 +1701,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="22904832"/>
-        <c:axId val="192878080"/>
+        <c:axId val="861081856"/>
+        <c:axId val="861090560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1039,11 +1714,63 @@
             <c:v>负闪平均强度</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="15875"/>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -1135,11 +1862,63 @@
             <c:v>正闪平均强度</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="15875"/>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent4">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -1234,20 +2013,116 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259839104"/>
-        <c:axId val="260397696"/>
+        <c:axId val="861082400"/>
+        <c:axId val="861092192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22904832"/>
+        <c:axId val="861081856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时段</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48340400807734779"/>
+              <c:y val="0.86956773578959223"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192878080"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="861090560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +2130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192878080"/>
+        <c:axId val="861090560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,60 +2138,328 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>地闪次数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="22904832"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="861081856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260397696"/>
+        <c:axId val="861092192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>平均强度（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>KA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259839104"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="861082400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="259839104"/>
+        <c:axId val="861082400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260397696"/>
+        <c:crossAx val="861092192"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1325,20 +2468,3931 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14941426071741032"/>
+          <c:y val="9.8148148148148165E-2"/>
+          <c:w val="0.69596303587051622"/>
+          <c:h val="0.6482713619130942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>负闪次数</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>强度分布统计!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>强度分布统计!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="861095456"/>
+        <c:axId val="861096000"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>累积比例</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>强度分布统计!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5.699954400364797E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0601915184678522E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1239170086639307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30893752849977202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48632010943912451</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62072503419972647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7202462380300958</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78864569083447333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83356133150934797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86753305973552219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89363885088919293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9151846785225719</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93182854537163706</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94334245326037391</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95337437300501593</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95987232102143183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96568627450980393</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97013223894208844</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97526219790241675</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97822617419060642</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99646602827177377</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99829001367989045</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99931600547195609</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="861090016"/>
+        <c:axId val="861089472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="861095456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>强度（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>KA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="861096000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="861096000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>地闪次数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="861095456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="861089472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>累积比例</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="861090016"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="861090016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="861089472"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14941426071741032"/>
+          <c:y val="9.8148148148148165E-2"/>
+          <c:w val="0.69596303587051622"/>
+          <c:h val="0.6482713619130942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>正闪次数</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>强度分布统计!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>强度分布统计!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="858683744"/>
+        <c:axId val="858673408"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>累积比例</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>强度分布统计!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00%">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00%">
+                  <c:v>0.58800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00%">
+                  <c:v>0.65400000000000014</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00%">
+                  <c:v>0.70400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>0.75800000000000023</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>0.81400000000000028</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.85200000000000031</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00%">
+                  <c:v>0.87800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00%">
+                  <c:v>0.88600000000000034</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00%">
+                  <c:v>0.91000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00%">
+                  <c:v>0.91400000000000037</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00%">
+                  <c:v>0.92400000000000038</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00%">
+                  <c:v>0.93200000000000038</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00%">
+                  <c:v>0.94000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00%">
+                  <c:v>0.9460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00%">
+                  <c:v>0.9500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.98600000000000043</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00%">
+                  <c:v>0.99200000000000044</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00%">
+                  <c:v>0.99400000000000044</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00%">
+                  <c:v>0.99800000000000044</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00%">
+                  <c:v>1.0000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="858677216"/>
+        <c:axId val="858674496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="858683744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>强度（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>KA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858673408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="858673408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>地闪次数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858683744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="858674496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>累积比例</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858677216"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="858677216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="858674496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1364,16 +6418,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600404</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247979</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>14846</xdr:rowOff>
+      <xdr:rowOff>24371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>121657</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>14847</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>455032</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1395,8 +6449,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1438,7 +6559,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1473,7 +6594,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1689,10 +6810,10 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="5" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2179,14 +7300,14 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2467,6 +7588,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2475,13 +7597,13 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2783,7 +7905,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2791,15 +7914,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3357,15 +8480,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -3378,8 +8505,14 @@
       <c r="D1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="17">
         <v>0</v>
       </c>
@@ -3392,8 +8525,16 @@
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="9">
+        <f>C2/$C$27</f>
+        <v>5.699954400364797E-4</v>
+      </c>
+      <c r="F2" s="9">
+        <f>D2/$D$27</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="17">
         <v>5</v>
       </c>
@@ -3406,8 +8547,16 @@
       <c r="D3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="9">
+        <f>C3/$C$27+E2</f>
+        <v>1.0601915184678522E-2</v>
+      </c>
+      <c r="F3" s="19">
+        <f>D3/$D$27+F2</f>
+        <v>0.10600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="17">
         <v>10</v>
       </c>
@@ -3420,8 +8569,16 @@
       <c r="D4">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="9">
+        <f>C4/$C$27+E3</f>
+        <v>0.1239170086639307</v>
+      </c>
+      <c r="F4" s="9">
+        <f>D4/$D$27+F3</f>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="17">
         <v>15</v>
       </c>
@@ -3434,8 +8591,16 @@
       <c r="D5">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="9">
+        <f>C5/$C$27+E4</f>
+        <v>0.30893752849977202</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F26" si="0">D5/$D$27+F4</f>
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="17">
         <v>20</v>
       </c>
@@ -3448,8 +8613,16 @@
       <c r="D6">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="9">
+        <f>C6/$C$27+E5</f>
+        <v>0.48632010943912451</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="17">
         <v>25</v>
       </c>
@@ -3462,8 +8635,16 @@
       <c r="D7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="9">
+        <f t="shared" ref="E7:E26" si="1">C7/$C$27+E6</f>
+        <v>0.62072503419972647</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.58800000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="17">
         <v>30</v>
       </c>
@@ -3476,8 +8657,16 @@
       <c r="D8">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.7202462380300958</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.65400000000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="17">
         <v>35</v>
       </c>
@@ -3490,8 +8679,16 @@
       <c r="D9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.78864569083447333</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.70400000000000018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="17">
         <v>40</v>
       </c>
@@ -3504,8 +8701,16 @@
       <c r="D10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.83356133150934797</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75800000000000023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="17">
         <v>45</v>
       </c>
@@ -3518,8 +8723,16 @@
       <c r="D11">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.86753305973552219</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.81400000000000028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="17">
         <v>50</v>
       </c>
@@ -3532,8 +8745,16 @@
       <c r="D12">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.89363885088919293</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.85200000000000031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="17">
         <v>55</v>
       </c>
@@ -3546,8 +8767,16 @@
       <c r="D13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.9151846785225719</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.87800000000000034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="17">
         <v>60</v>
       </c>
@@ -3560,8 +8789,16 @@
       <c r="D14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.93182854537163706</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.88600000000000034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="17">
         <v>65</v>
       </c>
@@ -3574,8 +8811,16 @@
       <c r="D15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.94334245326037391</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.91000000000000036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="17">
         <v>70</v>
       </c>
@@ -3588,8 +8833,16 @@
       <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.95337437300501593</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.91400000000000037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="17">
         <v>75</v>
       </c>
@@ -3602,8 +8855,16 @@
       <c r="D17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.95987232102143183</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.92400000000000038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="17">
         <v>80</v>
       </c>
@@ -3616,8 +8877,16 @@
       <c r="D18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.96568627450980393</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.93200000000000038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="17">
         <v>85</v>
       </c>
@@ -3630,8 +8899,16 @@
       <c r="D19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.97013223894208844</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.94000000000000039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="17">
         <v>90</v>
       </c>
@@ -3644,8 +8921,16 @@
       <c r="D20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.97526219790241675</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.9460000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="17">
         <v>95</v>
       </c>
@@ -3658,8 +8943,16 @@
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.97822617419060642</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.9500000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="17">
         <v>100</v>
       </c>
@@ -3672,8 +8965,16 @@
       <c r="D22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99646602827177377</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.98600000000000043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="17">
         <v>150</v>
       </c>
@@ -3686,8 +8987,16 @@
       <c r="D23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99829001367989045</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99200000000000044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="17">
         <v>200</v>
       </c>
@@ -3700,8 +9009,16 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99931600547195609</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99400000000000044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="17">
         <v>250</v>
       </c>
@@ -3714,8 +9031,16 @@
       <c r="D25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99800000000000044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="17">
         <v>300</v>
       </c>
@@ -3728,8 +9053,16 @@
       <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>60</v>
       </c>
@@ -3742,8 +9075,18 @@
         <v>500</v>
       </c>
     </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <f>C27+D27</f>
+        <v>9272</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/公报图表模板.xlsx
+++ b/Data/公报图表模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2430" windowHeight="450" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2436" windowHeight="1140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="省分区统计" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="分时段统计" sheetId="4" r:id="rId4"/>
     <sheet name="强度分布统计" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -261,7 +261,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="0.000%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -399,7 +399,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -676,8 +676,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="858679936"/>
-        <c:axId val="858680480"/>
+        <c:axId val="150281600"/>
+        <c:axId val="150292352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -861,50 +861,6 @@
           </c:marker>
           <c:dPt>
             <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:gradFill rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent4">
-                        <a:tint val="50000"/>
-                        <a:satMod val="300000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="35000">
-                      <a:schemeClr val="accent4">
-                        <a:tint val="37000"/>
-                        <a:satMod val="300000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent4">
-                        <a:tint val="15000"/>
-                        <a:satMod val="350000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="16200000" scaled="1"/>
-                </a:gradFill>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="accent4">
-                      <a:shade val="95000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                    <a:srgbClr val="000000">
-                      <a:alpha val="38000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
           </c:dPt>
           <c:val>
@@ -964,11 +920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="858681568"/>
-        <c:axId val="858681024"/>
+        <c:axId val="150300544"/>
+        <c:axId val="150298624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="858679936"/>
+        <c:axId val="150281600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,26 +973,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1074,7 +1010,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="858680480"/>
+        <c:crossAx val="150292352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1082,7 +1018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="858680480"/>
+        <c:axId val="150292352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1064,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1137,26 +1072,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1191,12 +1106,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="858679936"/>
+        <c:crossAx val="150281600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="858681024"/>
+        <c:axId val="150298624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1152,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1246,26 +1160,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1302,12 +1196,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="858681568"/>
+        <c:crossAx val="150300544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="858681568"/>
+        <c:axId val="150300544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1210,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="858681024"/>
+        <c:crossAx val="150298624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1333,7 +1227,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1701,8 +1594,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="861081856"/>
-        <c:axId val="861090560"/>
+        <c:axId val="150452864"/>
+        <c:axId val="150459520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2013,11 +1906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="861082400"/>
-        <c:axId val="861092192"/>
+        <c:axId val="150467712"/>
+        <c:axId val="150461440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="861081856"/>
+        <c:axId val="150452864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,26 +1958,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2122,7 +1995,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="861090560"/>
+        <c:crossAx val="150459520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2130,7 +2003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="861090560"/>
+        <c:axId val="150459520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,26 +2081,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2262,12 +2115,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="861081856"/>
+        <c:crossAx val="150452864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="861092192"/>
+        <c:axId val="150461440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,26 +2169,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2370,12 +2203,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="861082400"/>
+        <c:crossAx val="150467712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="861082400"/>
+        <c:axId val="150467712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2384,7 +2217,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="861092192"/>
+        <c:crossAx val="150461440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2725,8 +2558,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="861095456"/>
-        <c:axId val="861096000"/>
+        <c:axId val="150271488"/>
+        <c:axId val="150273408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2852,11 +2685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="861090016"/>
-        <c:axId val="861089472"/>
+        <c:axId val="150752640"/>
+        <c:axId val="150750720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="861095456"/>
+        <c:axId val="150271488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2896,7 +2729,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2905,26 +2737,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2963,7 +2775,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="861096000"/>
+        <c:crossAx val="150273408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2971,7 +2783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="861096000"/>
+        <c:axId val="150273408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,7 +2852,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3049,26 +2860,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3101,12 +2892,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="861095456"/>
+        <c:crossAx val="150271488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="861089472"/>
+        <c:axId val="150750720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3139,7 +2930,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3148,26 +2938,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -3200,12 +2970,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="861090016"/>
+        <c:crossAx val="150752640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="861090016"/>
+        <c:axId val="150752640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,7 +2984,8 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="861089472"/>
+        <c:crossAx val="150750720"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3230,7 +3001,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3554,8 +3324,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="858683744"/>
-        <c:axId val="858673408"/>
+        <c:axId val="150783104"/>
+        <c:axId val="150785024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3681,11 +3451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="858677216"/>
-        <c:axId val="858674496"/>
+        <c:axId val="150797312"/>
+        <c:axId val="150795392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="858683744"/>
+        <c:axId val="150783104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3725,7 +3495,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3734,26 +3503,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3792,7 +3541,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="858673408"/>
+        <c:crossAx val="150785024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3800,7 +3549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="858673408"/>
+        <c:axId val="150785024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,7 +3618,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3878,26 +3626,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3930,12 +3658,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="858683744"/>
+        <c:crossAx val="150783104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="858674496"/>
+        <c:axId val="150795392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3968,7 +3696,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3977,26 +3704,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -4029,12 +3736,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="858677216"/>
+        <c:crossAx val="150797312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="858677216"/>
+        <c:axId val="150797312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4043,7 +3750,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="858674496"/>
+        <c:crossAx val="150795392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4060,7 +3767,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6517,7 +6223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6559,7 +6265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6594,7 +6300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6810,10 +6516,10 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="5" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -7303,11 +7009,11 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7600,10 +7306,10 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7915,14 +7621,14 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8474,7 +8180,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8482,14 +8189,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/Data/公报图表模板.xlsx
+++ b/Data/公报图表模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2436" windowHeight="1140" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2430" windowHeight="1140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="省分区统计" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="分时段统计" sheetId="4" r:id="rId4"/>
     <sheet name="强度分布统计" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>地闪次数</t>
   </si>
@@ -252,6 +252,22 @@
   </si>
   <si>
     <t>总闪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大密度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小密度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大雷暴日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小雷暴日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,8 +692,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="150281600"/>
-        <c:axId val="150292352"/>
+        <c:axId val="1038279360"/>
+        <c:axId val="1038280448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -861,6 +877,50 @@
           </c:marker>
           <c:dPt>
             <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent4">
+                        <a:tint val="50000"/>
+                        <a:satMod val="300000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="35000">
+                      <a:schemeClr val="accent4">
+                        <a:tint val="37000"/>
+                        <a:satMod val="300000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent4">
+                        <a:tint val="15000"/>
+                        <a:satMod val="350000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="16200000" scaled="1"/>
+                </a:gradFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:shade val="95000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="38000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
             <c:bubble3D val="0"/>
           </c:dPt>
           <c:val>
@@ -920,11 +980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150300544"/>
-        <c:axId val="150298624"/>
+        <c:axId val="1038273376"/>
+        <c:axId val="1038272832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150281600"/>
+        <c:axId val="1038279360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,6 +1033,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1010,7 +1090,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150292352"/>
+        <c:crossAx val="1038280448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,7 +1098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150292352"/>
+        <c:axId val="1038280448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,6 +1144,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1072,6 +1153,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1106,12 +1207,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150281600"/>
+        <c:crossAx val="1038279360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150298624"/>
+        <c:axId val="1038272832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,6 +1253,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1160,6 +1262,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1196,12 +1318,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150300544"/>
+        <c:crossAx val="1038273376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="150300544"/>
+        <c:axId val="1038273376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1332,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150298624"/>
+        <c:crossAx val="1038272832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,6 +1349,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1594,8 +1717,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="150452864"/>
-        <c:axId val="150459520"/>
+        <c:axId val="1038276096"/>
+        <c:axId val="1038283168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1906,11 +2029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150467712"/>
-        <c:axId val="150461440"/>
+        <c:axId val="1038276640"/>
+        <c:axId val="1038274464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150452864"/>
+        <c:axId val="1038276096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,6 +2081,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1995,7 +2138,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150459520"/>
+        <c:crossAx val="1038283168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2003,7 +2146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150459520"/>
+        <c:axId val="1038283168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,6 +2224,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2115,12 +2278,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150452864"/>
+        <c:crossAx val="1038276096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150461440"/>
+        <c:axId val="1038274464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,6 +2332,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2203,12 +2386,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150467712"/>
+        <c:crossAx val="1038276640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="150467712"/>
+        <c:axId val="1038276640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,7 +2400,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150461440"/>
+        <c:crossAx val="1038274464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2558,8 +2741,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="150271488"/>
-        <c:axId val="150273408"/>
+        <c:axId val="1039779632"/>
+        <c:axId val="1039789968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2685,11 +2868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150752640"/>
-        <c:axId val="150750720"/>
+        <c:axId val="1039791056"/>
+        <c:axId val="1039787248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150271488"/>
+        <c:axId val="1039779632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2729,6 +2912,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2737,6 +2921,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2775,7 +2979,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150273408"/>
+        <c:crossAx val="1039789968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2783,7 +2987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150273408"/>
+        <c:axId val="1039789968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,6 +3056,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2860,6 +3065,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2892,12 +3117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150271488"/>
+        <c:crossAx val="1039779632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150750720"/>
+        <c:axId val="1039787248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2930,6 +3155,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2938,6 +3164,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -2970,12 +3216,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150752640"/>
+        <c:crossAx val="1039791056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="150752640"/>
+        <c:axId val="1039791056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,7 +3230,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150750720"/>
+        <c:crossAx val="1039787248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3001,6 +3247,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3324,8 +3571,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="150783104"/>
-        <c:axId val="150785024"/>
+        <c:axId val="1039792144"/>
+        <c:axId val="1039787792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3451,11 +3698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150797312"/>
-        <c:axId val="150795392"/>
+        <c:axId val="1039793232"/>
+        <c:axId val="1039792688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150783104"/>
+        <c:axId val="1039792144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3495,6 +3742,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3503,6 +3751,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3541,7 +3809,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150785024"/>
+        <c:crossAx val="1039787792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3549,7 +3817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150785024"/>
+        <c:axId val="1039787792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3618,6 +3886,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3626,6 +3895,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3658,12 +3947,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150783104"/>
+        <c:crossAx val="1039792144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150795392"/>
+        <c:axId val="1039792688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3696,6 +3985,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3704,6 +3994,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -3736,12 +4046,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150797312"/>
+        <c:crossAx val="1039793232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="150797312"/>
+        <c:axId val="1039793232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,7 +4060,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150795392"/>
+        <c:crossAx val="1039792688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3767,6 +4077,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6223,7 +6534,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6265,7 +6576,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6300,7 +6611,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6516,10 +6827,10 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="5" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -7003,17 +7314,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7288,7 +7599,41 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7306,10 +7651,10 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7620,15 +7965,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8189,14 +8534,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/Data/公报图表模板.xlsx
+++ b/Data/公报图表模板.xlsx
@@ -692,8 +692,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1038279360"/>
-        <c:axId val="1038280448"/>
+        <c:axId val="163189712"/>
+        <c:axId val="163190272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -980,11 +980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1038273376"/>
-        <c:axId val="1038272832"/>
+        <c:axId val="163191392"/>
+        <c:axId val="163190832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1038279360"/>
+        <c:axId val="163189712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1090,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1038280448"/>
+        <c:crossAx val="163190272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1098,7 +1098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1038280448"/>
+        <c:axId val="163190272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1144,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1207,12 +1206,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1038279360"/>
+        <c:crossAx val="163189712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1038272832"/>
+        <c:axId val="163190832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1252,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1318,12 +1316,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1038273376"/>
+        <c:crossAx val="163191392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1038273376"/>
+        <c:axId val="163191392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1330,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1038272832"/>
+        <c:crossAx val="163190832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1349,7 +1347,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1717,8 +1714,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1038276096"/>
-        <c:axId val="1038283168"/>
+        <c:axId val="163195312"/>
+        <c:axId val="163195872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2029,11 +2026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1038276640"/>
-        <c:axId val="1038274464"/>
+        <c:axId val="163196992"/>
+        <c:axId val="163196432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1038276096"/>
+        <c:axId val="163195312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,7 +2135,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1038283168"/>
+        <c:crossAx val="163195872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2146,7 +2143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1038283168"/>
+        <c:axId val="163195872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2212,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2278,12 +2274,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1038276096"/>
+        <c:crossAx val="163195312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1038274464"/>
+        <c:axId val="163196432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,7 +2319,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2386,12 +2381,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1038276640"/>
+        <c:crossAx val="163196992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1038276640"/>
+        <c:axId val="163196992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,7 +2395,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1038274464"/>
+        <c:crossAx val="163196432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2417,7 +2412,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2741,8 +2735,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1039779632"/>
-        <c:axId val="1039789968"/>
+        <c:axId val="163199792"/>
+        <c:axId val="163200352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2868,11 +2862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1039791056"/>
-        <c:axId val="1039787248"/>
+        <c:axId val="163201472"/>
+        <c:axId val="163200912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1039779632"/>
+        <c:axId val="163199792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2912,7 +2906,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2979,7 +2972,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1039789968"/>
+        <c:crossAx val="163200352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2987,7 +2980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1039789968"/>
+        <c:axId val="163200352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,7 +3049,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3117,12 +3109,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1039779632"/>
+        <c:crossAx val="163199792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1039787248"/>
+        <c:axId val="163200912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3155,7 +3147,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3216,12 +3207,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1039791056"/>
+        <c:crossAx val="163201472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1039791056"/>
+        <c:axId val="163201472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3230,7 +3221,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1039787248"/>
+        <c:crossAx val="163200912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3247,7 +3238,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3571,8 +3561,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1039792144"/>
-        <c:axId val="1039787792"/>
+        <c:axId val="164284000"/>
+        <c:axId val="164284560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3698,11 +3688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1039793232"/>
-        <c:axId val="1039792688"/>
+        <c:axId val="164285680"/>
+        <c:axId val="164285120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1039792144"/>
+        <c:axId val="164284000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3742,7 +3732,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3809,7 +3798,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1039787792"/>
+        <c:crossAx val="164284560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3817,7 +3806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1039787792"/>
+        <c:axId val="164284560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3886,7 +3875,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3947,12 +3935,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1039792144"/>
+        <c:crossAx val="164284000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1039792688"/>
+        <c:axId val="164285120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3985,7 +3973,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4046,12 +4033,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1039793232"/>
+        <c:crossAx val="164285680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1039793232"/>
+        <c:axId val="164285680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4060,7 +4047,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1039792688"/>
+        <c:crossAx val="164285120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4077,7 +4064,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
